--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Cars/AverageFlowDiscrepanciesReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Cars/AverageFlowDiscrepanciesReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A0181-05F7-4E8F-8B9D-FC91D6DE453F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA17F6-D5E0-447C-AA5D-5DA2AF7C72DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$6:$L$7</definedName>
+    <definedName name="Rows">Лист1!$A$6:$M$7</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Отчет по расходу топлива за период {{StartDate.ToString("dd-MM-yyyy")}} – {{EndDate.ToString("dd-MM-yyyy")}}</t>
   </si>
@@ -115,13 +115,19 @@
   </si>
   <si>
     <t>{{item.DiscrepancyPercent}}</t>
+  </si>
+  <si>
+    <t>Дата след.калибровки</t>
+  </si>
+  <si>
+    <t>{{item.NextCalibrationDate}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +163,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -199,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -242,84 +256,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAEEA6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -348,34 +311,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAEEA6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -575,78 +510,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="3" customWidth="1"/>
-    <col min="13" max="1024" width="9.140625" style="3"/>
+    <col min="2" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="3" customWidth="1"/>
+    <col min="14" max="1025" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -655,89 +595,96 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -746,42 +693,40 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="15"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="C2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>AND(ABS( L6) &lt;= $C$3, ABS( L6) &gt;= $C$3 * (-1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>AND(L6 &lt; 0, ABS( L6) &gt;= $C$3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>($B6&lt;&gt;"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>($B6="")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(ABS($A$9) &gt; B9, B9 &gt;8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:K6">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>($B6="")</formula>
+  <conditionalFormatting sqref="A6:M6">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>($C6="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>AND(ABS( M6) &lt;= $C$3, ABS( M6) &gt;= $C$3 * (-1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(M6 &lt; 0, ABS( M6) &gt;= $C$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>($C6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
